--- a/Datenbankstruktur/Vorschlag_Datenbankstruktur.xlsx
+++ b/Datenbankstruktur/Vorschlag_Datenbankstruktur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\MCI\Semster_1\Informatik\assignment_1\Datenbankstruktur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8EAB33-BB68-4E0D-9A17-DCC2A8952C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ECFCC8-8CE4-4F14-9C4C-7DD1CC061047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{6EE004B8-AECF-4176-BB6D-5D59AC54C84D}"/>
   </bookViews>
